--- a/data/vissim_inputs/ex_od_pcts1.xlsx
+++ b/data/vissim_inputs/ex_od_pcts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\vissim_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{810080E0-0796-4315-940C-A1416EBF39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9F21442F-D7A1-4961-8426-91BCC93FA39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34830" yWindow="-2175" windowWidth="28800" windowHeight="15285" activeTab="1"/>
   </bookViews>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,16 +932,16 @@
         <v>0.109375</v>
       </c>
       <c r="C3">
-        <v>0.115384615</v>
+        <v>0.109375</v>
       </c>
       <c r="D3">
-        <v>7.0175439000000006E-2</v>
+        <v>4.22535211267605E-2</v>
       </c>
       <c r="E3">
-        <v>0.16666666699999999</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="F3">
-        <v>0.10714285699999999</v>
+        <v>0.06</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -952,19 +952,19 @@
         <v>10021012</v>
       </c>
       <c r="B4">
-        <v>0.166515837</v>
+        <v>0.115665584415584</v>
       </c>
       <c r="C4">
-        <v>0.166515837</v>
+        <v>0.115665584415584</v>
       </c>
       <c r="D4">
-        <v>0.14378730300000001</v>
+        <v>0.111944393634534</v>
       </c>
       <c r="E4">
-        <v>0.121722846</v>
+        <v>2.9761904761904701E-2</v>
       </c>
       <c r="F4">
-        <v>0.18382352900000001</v>
+        <v>6.9629629629629597E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -972,19 +972,19 @@
         <v>10021024</v>
       </c>
       <c r="B5">
-        <v>9.4891725999999996E-2</v>
+        <v>0.254186688311688</v>
       </c>
       <c r="C5">
-        <v>9.4891725999999996E-2</v>
+        <v>0.254186688311688</v>
       </c>
       <c r="D5">
-        <v>0.104270249</v>
+        <v>0.23825410851794501</v>
       </c>
       <c r="E5">
-        <v>9.6093387000000002E-2</v>
+        <v>0.17261904761904701</v>
       </c>
       <c r="F5">
-        <v>9.6467157999999997E-2</v>
+        <v>0.214766714766714</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -992,19 +992,19 @@
         <v>10021025</v>
       </c>
       <c r="B6">
-        <v>1.7952488999999999E-2</v>
+        <v>1.85990259740259E-2</v>
       </c>
       <c r="C6">
-        <v>1.7952488999999999E-2</v>
+        <v>1.85990259740259E-2</v>
       </c>
       <c r="D6">
-        <v>1.6041577000000001E-2</v>
+        <v>1.78690581388458E-2</v>
       </c>
       <c r="E6">
-        <v>5.194237E-3</v>
+        <v>1.7261904761904701E-2</v>
       </c>
       <c r="F6">
-        <v>4.8233579999999998E-3</v>
+        <v>5.6517556517556499E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1012,19 +1012,19 @@
         <v>10021031</v>
       </c>
       <c r="B7">
-        <v>0.45082804599999998</v>
+        <v>0.43840561224489799</v>
       </c>
       <c r="C7">
-        <v>0.45082804599999998</v>
+        <v>0.43840561224489799</v>
       </c>
       <c r="D7">
-        <v>0.52047624800000003</v>
+        <v>0.467025703516875</v>
       </c>
       <c r="E7">
-        <v>0.50819712500000003</v>
+        <v>0.573813518696069</v>
       </c>
       <c r="F7">
-        <v>0.50144582500000001</v>
+        <v>0.57878928316884504</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1032,19 +1032,19 @@
         <v>10021034</v>
       </c>
       <c r="B8">
-        <v>0.154427287</v>
+        <v>6.3768089053803295E-2</v>
       </c>
       <c r="C8">
-        <v>0.154427287</v>
+        <v>6.3768089053803295E-2</v>
       </c>
       <c r="D8">
-        <v>0.145249185</v>
+        <v>0.122653215065038</v>
       </c>
       <c r="E8">
-        <v>0.10212573799999999</v>
+        <v>9.9400767018216596E-2</v>
       </c>
       <c r="F8">
-        <v>0.106297272</v>
+        <v>7.1162616783054702E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1052,19 +1052,19 @@
         <v>10031002</v>
       </c>
       <c r="B9">
-        <v>0.15873015900000001</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="C9">
-        <v>0.15873015900000001</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="D9">
-        <v>0.16666666699999999</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="E9">
-        <v>0.185185185</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="F9">
-        <v>0.20754717</v>
+        <v>0.10256410256410201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1072,19 +1072,19 @@
         <v>10031012</v>
       </c>
       <c r="B10">
-        <v>0.158356676</v>
+        <v>0.117501546072974</v>
       </c>
       <c r="C10">
-        <v>0.158356676</v>
+        <v>0.117501546072974</v>
       </c>
       <c r="D10">
-        <v>0.12886597899999999</v>
+        <v>0.111570247933884</v>
       </c>
       <c r="E10">
-        <v>0.119017894</v>
+        <v>2.8985507246376802E-2</v>
       </c>
       <c r="F10">
-        <v>0.16315205299999999</v>
+        <v>6.6476733143399802E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1092,19 +1092,19 @@
         <v>10031024</v>
       </c>
       <c r="B11">
-        <v>9.0242096999999993E-2</v>
+        <v>0.25822139764996899</v>
       </c>
       <c r="C11">
-        <v>9.0242096999999993E-2</v>
+        <v>0.25822139764996899</v>
       </c>
       <c r="D11">
-        <v>9.3449750999999998E-2</v>
+        <v>0.23745780467931499</v>
       </c>
       <c r="E11">
-        <v>9.3957977999999998E-2</v>
+        <v>0.168115942028985</v>
       </c>
       <c r="F11">
-        <v>8.5619153000000003E-2</v>
+        <v>0.20504187170853799</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1112,19 +1112,19 @@
         <v>10031025</v>
       </c>
       <c r="B12">
-        <v>1.7072829000000001E-2</v>
+        <v>1.8894248608534302E-2</v>
       </c>
       <c r="C12">
-        <v>1.7072829000000001E-2</v>
+        <v>1.8894248608534302E-2</v>
       </c>
       <c r="D12">
-        <v>1.4376885000000001E-2</v>
+        <v>1.7809335350948599E-2</v>
       </c>
       <c r="E12">
-        <v>5.0788099999999996E-3</v>
+        <v>1.6811594202898499E-2</v>
       </c>
       <c r="F12">
-        <v>4.2809579999999996E-3</v>
+        <v>5.3958387291720604E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,19 +1132,19 @@
         <v>10031031</v>
       </c>
       <c r="B13">
-        <v>0.42873778299999998</v>
+        <v>0.44536443148687999</v>
       </c>
       <c r="C13">
-        <v>0.42873778299999998</v>
+        <v>0.44536443148687999</v>
       </c>
       <c r="D13">
-        <v>0.466464561</v>
+        <v>0.465464788732394</v>
       </c>
       <c r="E13">
-        <v>0.49690385500000001</v>
+        <v>0.55884447038225804</v>
       </c>
       <c r="F13">
-        <v>0.44505682299999999</v>
+        <v>0.55258114868820396</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,19 +1152,19 @@
         <v>10031034</v>
       </c>
       <c r="B14">
-        <v>0.146860456</v>
+        <v>6.4780280943546195E-2</v>
       </c>
       <c r="C14">
-        <v>0.146860456</v>
+        <v>6.4780280943546195E-2</v>
       </c>
       <c r="D14">
-        <v>0.13017615699999999</v>
+        <v>0.12224327784891099</v>
       </c>
       <c r="E14">
-        <v>9.9856276999999993E-2</v>
+        <v>9.6807703530784897E-2</v>
       </c>
       <c r="F14">
-        <v>9.4343842999999997E-2</v>
+        <v>6.7940305166582504E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1172,19 +1172,19 @@
         <v>10141002</v>
       </c>
       <c r="B15">
-        <v>0.124697449</v>
+        <v>8.4306987399770897E-2</v>
       </c>
       <c r="C15">
-        <v>0.124697449</v>
+        <v>8.4306987399770897E-2</v>
       </c>
       <c r="D15">
-        <v>0.115745714</v>
+        <v>0.136122448979591</v>
       </c>
       <c r="E15">
-        <v>0.108499096</v>
+        <v>0.22760800842992601</v>
       </c>
       <c r="F15">
-        <v>0.11312767</v>
+        <v>0.213101098068913</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1192,19 +1192,19 @@
         <v>10141003</v>
       </c>
       <c r="B16">
-        <v>5.4691864E-2</v>
+        <v>0.152806414662084</v>
       </c>
       <c r="C16">
-        <v>5.4691864E-2</v>
+        <v>0.152806414662084</v>
       </c>
       <c r="D16">
-        <v>3.9235834999999997E-2</v>
+        <v>9.8571428571428504E-2</v>
       </c>
       <c r="E16">
-        <v>4.3399637999999997E-2</v>
+        <v>8.0084299262381406E-2</v>
       </c>
       <c r="F16">
-        <v>3.5161302999999998E-2</v>
+        <v>8.9057175312381595E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,19 +1212,19 @@
         <v>10141012</v>
       </c>
       <c r="B17">
-        <v>7.6335880000000002E-3</v>
+        <v>1.03092783505154E-2</v>
       </c>
       <c r="C17">
-        <v>7.6335880000000002E-3</v>
+        <v>1.03092783505154E-2</v>
       </c>
       <c r="D17">
-        <v>3.6900370000000002E-3</v>
+        <v>3.06122448979591E-2</v>
       </c>
       <c r="E17">
-        <v>4.2194090000000004E-3</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="F17">
-        <v>1.1406843999999999E-2</v>
+        <v>7.1942446043165402E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,19 +1232,19 @@
         <v>10141024</v>
       </c>
       <c r="B18">
-        <v>0.107429117</v>
+        <v>0.24684536082474201</v>
       </c>
       <c r="C18">
-        <v>0.107429117</v>
+        <v>0.24684536082474201</v>
       </c>
       <c r="D18">
-        <v>0.11160479</v>
+        <v>0.206956021845357</v>
       </c>
       <c r="E18">
-        <v>0.113954849</v>
+        <v>0.13692307692307601</v>
       </c>
       <c r="F18">
-        <v>0.1143271</v>
+        <v>0.17041950854900401</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1252,19 +1252,19 @@
         <v>10141025</v>
       </c>
       <c r="B19">
-        <v>2.0324426999999999E-2</v>
+        <v>1.8061855670102999E-2</v>
       </c>
       <c r="C19">
-        <v>2.0324426999999999E-2</v>
+        <v>1.8061855670102999E-2</v>
       </c>
       <c r="D19">
-        <v>1.7169968000000001E-2</v>
+        <v>1.5521701638401801E-2</v>
       </c>
       <c r="E19">
-        <v>6.1597220000000003E-3</v>
+        <v>1.3692307692307599E-2</v>
       </c>
       <c r="F19">
-        <v>5.7163550000000002E-3</v>
+        <v>4.4847239091843401E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,19 +1272,19 @@
         <v>10141031</v>
       </c>
       <c r="B20">
-        <v>0.51039285400000001</v>
+        <v>0.42574374079528698</v>
       </c>
       <c r="C20">
-        <v>0.51039285400000001</v>
+        <v>0.42574374079528698</v>
       </c>
       <c r="D20">
-        <v>0.55708740400000001</v>
+        <v>0.40567519402127</v>
       </c>
       <c r="E20">
-        <v>0.60265881600000004</v>
+        <v>0.45515436241610702</v>
       </c>
       <c r="F20">
-        <v>0.59428356599999999</v>
+        <v>0.45927501055369502</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,19 +1292,19 @@
         <v>10141034</v>
       </c>
       <c r="B21">
-        <v>0.17483070100000001</v>
+        <v>6.1926362297496297E-2</v>
       </c>
       <c r="C21">
-        <v>0.17483070100000001</v>
+        <v>6.1926362297496297E-2</v>
       </c>
       <c r="D21">
-        <v>0.155466252</v>
+        <v>0.10654096004598999</v>
       </c>
       <c r="E21">
-        <v>0.12110847</v>
+        <v>7.8845637583892597E-2</v>
       </c>
       <c r="F21">
-        <v>0.125977162</v>
+        <v>5.6468239002503501E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,19 +1312,19 @@
         <v>10221002</v>
       </c>
       <c r="B22">
-        <v>5.1363691000000003E-2</v>
+        <v>2.3624953857511899E-2</v>
       </c>
       <c r="C22">
-        <v>5.1363691000000003E-2</v>
+        <v>2.3624953857511899E-2</v>
       </c>
       <c r="D22">
-        <v>4.4914928E-2</v>
+        <v>3.92804232804232E-2</v>
       </c>
       <c r="E22">
-        <v>7.5787018999999997E-2</v>
+        <v>0.107222914072229</v>
       </c>
       <c r="F22">
-        <v>5.8584385000000003E-2</v>
+        <v>9.7501819063788506E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1332,19 +1332,19 @@
         <v>10221003</v>
       </c>
       <c r="B23">
-        <v>2.2527934999999999E-2</v>
+        <v>4.2820228866740397E-2</v>
       </c>
       <c r="C23">
-        <v>2.2527934999999999E-2</v>
+        <v>4.2820228866740397E-2</v>
       </c>
       <c r="D23">
-        <v>1.5225399000000001E-2</v>
+        <v>2.8444444444444401E-2</v>
       </c>
       <c r="E23">
-        <v>3.0314807999999999E-2</v>
+        <v>3.7726580877265797E-2</v>
       </c>
       <c r="F23">
-        <v>1.8208660000000002E-2</v>
+        <v>4.0747028862478697E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,19 +1352,19 @@
         <v>10221012</v>
       </c>
       <c r="B24">
-        <v>6.8965517000000004E-2</v>
+        <v>2.8792912513842701E-2</v>
       </c>
       <c r="C24">
-        <v>6.8965517000000004E-2</v>
+        <v>2.8792912513842701E-2</v>
       </c>
       <c r="D24">
-        <v>6.1810891999999999E-2</v>
+        <v>4.6560846560846497E-2</v>
       </c>
       <c r="E24">
-        <v>0.119704625</v>
+        <v>6.7171717171717105E-2</v>
       </c>
       <c r="F24">
-        <v>6.9548418000000001E-2</v>
+        <v>5.5299539170506902E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,19 +1372,19 @@
         <v>10221024</v>
       </c>
       <c r="B25">
-        <v>2.8571428999999999E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="C25">
-        <v>2.8571428999999999E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="D25">
-        <v>2.4390243999999998E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="E25">
-        <v>3.2258065000000002E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="F25">
-        <v>2.4390243999999998E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,19 +1392,19 @@
         <v>10221025</v>
       </c>
       <c r="B26">
-        <v>8.5714286000000001E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="C26">
-        <v>8.5714286000000001E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="D26">
-        <v>4.8780487999999997E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="E26">
-        <v>3.2258065000000002E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="F26">
-        <v>7.3170732000000002E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,19 +1412,19 @@
         <v>10221031</v>
       </c>
       <c r="B27">
-        <v>0.55332157599999998</v>
+        <v>0.727513227513227</v>
       </c>
       <c r="C27">
-        <v>0.55332157599999998</v>
+        <v>0.727513227513227</v>
       </c>
       <c r="D27">
-        <v>0.62926829299999998</v>
+        <v>0.65622857142857105</v>
       </c>
       <c r="E27">
-        <v>0.59092661599999996</v>
+        <v>0.61989017693715598</v>
       </c>
       <c r="F27">
-        <v>0.62385235999999999</v>
+        <v>0.66070167176830696</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,19 +1432,19 @@
         <v>10221034</v>
       </c>
       <c r="B28">
-        <v>0.18953556699999999</v>
+        <v>0.105820105820105</v>
       </c>
       <c r="C28">
-        <v>0.18953556699999999</v>
+        <v>0.105820105820105</v>
       </c>
       <c r="D28">
-        <v>0.17560975600000001</v>
+        <v>0.17234285714285699</v>
       </c>
       <c r="E28">
-        <v>0.118750803</v>
+        <v>0.10738255033557</v>
       </c>
       <c r="F28">
-        <v>0.13224520100000001</v>
+        <v>8.1233812102660702E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,19 +1452,19 @@
         <v>10251002</v>
       </c>
       <c r="B29">
-        <v>0.11984861199999999</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="C29">
-        <v>0.11984861199999999</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="D29">
-        <v>0.28645743000000001</v>
+        <v>8.5925925925925906E-2</v>
       </c>
       <c r="E29">
-        <v>9.5893778999999998E-2</v>
+        <v>0.16849315068493101</v>
       </c>
       <c r="F29">
-        <v>0.13344221000000001</v>
+        <v>0.22389306599832901</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,19 +1472,19 @@
         <v>10251003</v>
       </c>
       <c r="B30">
-        <v>5.2565181000000002E-2</v>
+        <v>0.224806201550387</v>
       </c>
       <c r="C30">
-        <v>5.2565181000000002E-2</v>
+        <v>0.224806201550387</v>
       </c>
       <c r="D30">
-        <v>9.7104213999999994E-2</v>
+        <v>6.22222222222222E-2</v>
       </c>
       <c r="E30">
-        <v>3.8357512000000003E-2</v>
+        <v>5.9284627092846202E-2</v>
       </c>
       <c r="F30">
-        <v>4.1475282000000002E-2</v>
+        <v>9.3567251461988202E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,19 +1492,19 @@
         <v>10251012</v>
       </c>
       <c r="B31">
-        <v>0.16091954</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="C31">
-        <v>0.16091954</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="D31">
-        <v>0.394216134</v>
+        <v>0.101851851851851</v>
       </c>
       <c r="E31">
-        <v>0.15146299499999999</v>
+        <v>0.105555555555555</v>
       </c>
       <c r="F31">
-        <v>0.158415842</v>
+        <v>0.12698412698412601</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1512,19 +1512,19 @@
         <v>10251024</v>
       </c>
       <c r="B32">
-        <v>0.55555555599999995</v>
+        <v>0.25</v>
       </c>
       <c r="C32">
-        <v>0.55555555599999995</v>
+        <v>0.25</v>
       </c>
       <c r="D32">
-        <v>0.111111111</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
-        <v>0.64285714299999996</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="F32">
-        <v>0.33333333300000001</v>
+        <v>0.44444444444444398</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1532,19 +1532,19 @@
         <v>10251031</v>
       </c>
       <c r="B33">
-        <v>8.2761773999999996E-2</v>
+        <v>0.21825396825396801</v>
       </c>
       <c r="C33">
-        <v>8.2761773999999996E-2</v>
+        <v>0.21825396825396801</v>
       </c>
       <c r="D33">
-        <v>8.6868687E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E33">
-        <v>5.9476380000000002E-2</v>
+        <v>0.284116331096196</v>
       </c>
       <c r="F33">
-        <v>0.275031686</v>
+        <v>9.8945660989456605E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,19 +1552,19 @@
         <v>10251034</v>
       </c>
       <c r="B34">
-        <v>2.8349336999999999E-2</v>
+        <v>3.1746031746031703E-2</v>
       </c>
       <c r="C34">
-        <v>2.8349336999999999E-2</v>
+        <v>3.1746031746031703E-2</v>
       </c>
       <c r="D34">
-        <v>2.4242423999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E34">
-        <v>1.1952190999999999E-2</v>
+        <v>4.9217002237136397E-2</v>
       </c>
       <c r="F34">
-        <v>5.8301647999999998E-2</v>
+        <v>1.21654501216545E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,19 +1572,19 @@
         <v>10311002</v>
       </c>
       <c r="B35">
-        <v>0.11392951599999999</v>
+        <v>3.6848332402665197E-2</v>
       </c>
       <c r="C35">
-        <v>0.11392951599999999</v>
+        <v>3.6848332402665197E-2</v>
       </c>
       <c r="D35">
-        <v>0.11116308</v>
+        <v>4.6993888071138197E-2</v>
       </c>
       <c r="E35">
-        <v>0.10150782799999999</v>
+        <v>7.7147316009809494E-2</v>
       </c>
       <c r="F35">
-        <v>0.134554229</v>
+        <v>0.111546723952739</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1592,19 +1592,19 @@
         <v>10311003</v>
       </c>
       <c r="B36">
-        <v>4.9969086000000003E-2</v>
+        <v>6.6787602479830704E-2</v>
       </c>
       <c r="C36">
-        <v>4.9969086000000003E-2</v>
+        <v>6.6787602479830704E-2</v>
       </c>
       <c r="D36">
-        <v>3.7682399999999998E-2</v>
+        <v>3.4030056879100101E-2</v>
       </c>
       <c r="E36">
-        <v>4.0603131000000001E-2</v>
+        <v>2.7144426003451402E-2</v>
       </c>
       <c r="F36">
-        <v>4.1820909000000003E-2</v>
+        <v>4.6616541353383403E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,19 +1612,19 @@
         <v>10311012</v>
       </c>
       <c r="B37">
-        <v>0.15297202800000001</v>
+        <v>4.4908905115748202E-2</v>
       </c>
       <c r="C37">
-        <v>0.15297202800000001</v>
+        <v>4.4908905115748202E-2</v>
       </c>
       <c r="D37">
-        <v>0.15298007699999999</v>
+        <v>5.5703962153288801E-2</v>
       </c>
       <c r="E37">
-        <v>0.160330312</v>
+        <v>4.8330319469559901E-2</v>
       </c>
       <c r="F37">
-        <v>0.159735974</v>
+        <v>6.3265306122448906E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,19 +1632,19 @@
         <v>10311024</v>
       </c>
       <c r="B38">
-        <v>0.49431818199999999</v>
+        <v>0.74685044554672697</v>
       </c>
       <c r="C38">
-        <v>0.49431818199999999</v>
+        <v>0.74685044554672697</v>
       </c>
       <c r="D38">
-        <v>0.52089249500000001</v>
+        <v>0.75560159188791298</v>
       </c>
       <c r="E38">
-        <v>0.57328420099999999</v>
+        <v>0.73403943856023401</v>
       </c>
       <c r="F38">
-        <v>0.51180555599999999</v>
+        <v>0.63558201058201003</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,19 +1652,19 @@
         <v>10311025</v>
       </c>
       <c r="B39">
-        <v>1.2674825000000001E-2</v>
+        <v>4.1262455555067801E-3</v>
       </c>
       <c r="C39">
-        <v>1.2674825000000001E-2</v>
+        <v>4.1262455555067801E-3</v>
       </c>
       <c r="D39">
-        <v>4.8681540000000004E-3</v>
+        <v>3.5981028185138701E-3</v>
       </c>
       <c r="E39">
-        <v>4.514049E-3</v>
+        <v>3.6338586067338301E-3</v>
       </c>
       <c r="F39">
-        <v>1.1458332999999999E-2</v>
+        <v>4.1005291005291001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,19 +1672,19 @@
         <v>10311034</v>
       </c>
       <c r="B40">
-        <v>0.17613636399999999</v>
+        <v>0.100478468899521</v>
       </c>
       <c r="C40">
-        <v>0.17613636399999999</v>
+        <v>0.100478468899521</v>
       </c>
       <c r="D40">
-        <v>0.17241379300000001</v>
+        <v>0.104072398190045</v>
       </c>
       <c r="E40">
-        <v>0.119760479</v>
+        <v>0.10970464135021001</v>
       </c>
       <c r="F40">
-        <v>0.140625</v>
+        <v>0.13888888888888801</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1692,19 +1692,19 @@
         <v>10341002</v>
       </c>
       <c r="B41">
-        <v>8.6722268000000005E-2</v>
+        <v>3.22749578136819E-2</v>
       </c>
       <c r="C41">
-        <v>8.6722268000000005E-2</v>
+        <v>3.22749578136819E-2</v>
       </c>
       <c r="D41">
-        <v>7.7993452000000005E-2</v>
+        <v>4.6872691712476301E-2</v>
       </c>
       <c r="E41">
-        <v>7.0472365999999995E-2</v>
+        <v>6.4371260833100297E-2</v>
       </c>
       <c r="F41">
-        <v>0.116717453</v>
+        <v>0.113993555316863</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,19 +1712,19 @@
         <v>10341003</v>
       </c>
       <c r="B42">
-        <v>3.8036082999999998E-2</v>
+        <v>5.8498361037298503E-2</v>
       </c>
       <c r="C42">
-        <v>3.8036082999999998E-2</v>
+        <v>5.8498361037298503E-2</v>
       </c>
       <c r="D42">
-        <v>2.6438458000000001E-2</v>
+        <v>3.3942293998689699E-2</v>
       </c>
       <c r="E42">
-        <v>2.8188945999999999E-2</v>
+        <v>2.26491473301649E-2</v>
       </c>
       <c r="F42">
-        <v>3.6277046E-2</v>
+        <v>4.7639097744360898E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,19 +1732,19 @@
         <v>10341012</v>
       </c>
       <c r="B43">
-        <v>0.116441128</v>
+        <v>3.9335104835424801E-2</v>
       </c>
       <c r="C43">
-        <v>0.116441128</v>
+        <v>3.9335104835424801E-2</v>
       </c>
       <c r="D43">
-        <v>0.10733279599999999</v>
+        <v>5.5560302676426698E-2</v>
       </c>
       <c r="E43">
-        <v>0.111310198</v>
+        <v>4.0326530612244803E-2</v>
       </c>
       <c r="F43">
-        <v>0.13856105599999999</v>
+        <v>6.4653061224489702E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,19 +1752,19 @@
         <v>10341024</v>
       </c>
       <c r="B44">
-        <v>0.37627118599999998</v>
+        <v>0.65415624131220396</v>
       </c>
       <c r="C44">
-        <v>0.37627118599999998</v>
+        <v>0.65415624131220396</v>
       </c>
       <c r="D44">
-        <v>0.36546489599999998</v>
+        <v>0.753652909510382</v>
       </c>
       <c r="E44">
-        <v>0.39800569800000002</v>
+        <v>0.612478134110787</v>
       </c>
       <c r="F44">
-        <v>0.44395959600000001</v>
+        <v>0.64952380952380895</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,19 +1772,19 @@
         <v>10341025</v>
       </c>
       <c r="B45">
-        <v>9.6479789999999992E-3</v>
+        <v>3.6141228801779201E-3</v>
       </c>
       <c r="C45">
-        <v>9.6479789999999992E-3</v>
+        <v>3.6141228801779201E-3</v>
       </c>
       <c r="D45">
-        <v>3.4155600000000002E-3</v>
+        <v>3.58882337862086E-3</v>
       </c>
       <c r="E45">
-        <v>3.1339029999999999E-3</v>
+        <v>3.03206997084548E-3</v>
       </c>
       <c r="F45">
-        <v>9.9393940000000007E-3</v>
+        <v>4.1904761904761898E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,19 +1792,19 @@
         <v>10341031</v>
       </c>
       <c r="B46">
-        <v>0.372881356</v>
+        <v>0.21212121212121199</v>
       </c>
       <c r="C46">
-        <v>0.372881356</v>
+        <v>0.21212121212121199</v>
       </c>
       <c r="D46">
-        <v>0.41935483899999998</v>
+        <v>0.10638297872340401</v>
       </c>
       <c r="E46">
-        <v>0.38888888900000002</v>
+        <v>0.25714285714285701</v>
       </c>
       <c r="F46">
-        <v>0.25454545499999998</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -1856,15 +1856,15 @@
       </c>
       <c r="D2">
         <f>VLOOKUP($A2,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.0175439000000006E-2</v>
+        <v>4.22535211267605E-2</v>
       </c>
       <c r="E2">
         <f>VLOOKUP($A2,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.16666666699999999</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="F2">
         <f>VLOOKUP($A2,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.10714285699999999</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1873,23 +1873,23 @@
       </c>
       <c r="B3">
         <f>VLOOKUP($A3,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.166515837</v>
+        <v>0.115665584415584</v>
       </c>
       <c r="C3">
         <f>VLOOKUP($A3,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.166515837</v>
+        <v>0.115665584415584</v>
       </c>
       <c r="D3">
         <f>VLOOKUP($A3,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.14378730300000001</v>
+        <v>0.111944393634534</v>
       </c>
       <c r="E3">
         <f>VLOOKUP($A3,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.121722846</v>
+        <v>2.9761904761904701E-2</v>
       </c>
       <c r="F3">
         <f>VLOOKUP($A3,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.18382352900000001</v>
+        <v>6.9629629629629597E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,23 +1898,23 @@
       </c>
       <c r="B4">
         <f>VLOOKUP($A4,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.4891725999999996E-2</v>
+        <v>0.254186688311688</v>
       </c>
       <c r="C4">
         <f>VLOOKUP($A4,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.4891725999999996E-2</v>
+        <v>0.254186688311688</v>
       </c>
       <c r="D4">
         <f>VLOOKUP($A4,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.104270249</v>
+        <v>0.23825410851794501</v>
       </c>
       <c r="E4">
         <f>VLOOKUP($A4,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.6093387000000002E-2</v>
+        <v>0.17261904761904701</v>
       </c>
       <c r="F4">
         <f>VLOOKUP($A4,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.6467157999999997E-2</v>
+        <v>0.214766714766714</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,23 +1923,23 @@
       </c>
       <c r="B5">
         <f>VLOOKUP($A5,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.7952488999999999E-2</v>
+        <v>1.85990259740259E-2</v>
       </c>
       <c r="C5">
         <f>VLOOKUP($A5,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.7952488999999999E-2</v>
+        <v>1.85990259740259E-2</v>
       </c>
       <c r="D5">
         <f>VLOOKUP($A5,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.6041577000000001E-2</v>
+        <v>1.78690581388458E-2</v>
       </c>
       <c r="E5">
         <f>VLOOKUP($A5,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.194237E-3</v>
+        <v>1.7261904761904701E-2</v>
       </c>
       <c r="F5">
         <f>VLOOKUP($A5,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.8233579999999998E-3</v>
+        <v>5.6517556517556499E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1948,23 +1948,23 @@
       </c>
       <c r="B6">
         <f>VLOOKUP($A6,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.45082804599999998</v>
+        <v>0.43840561224489799</v>
       </c>
       <c r="C6">
         <f>VLOOKUP($A6,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.45082804599999998</v>
+        <v>0.43840561224489799</v>
       </c>
       <c r="D6">
         <f>VLOOKUP($A6,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.52047624800000003</v>
+        <v>0.467025703516875</v>
       </c>
       <c r="E6">
         <f>VLOOKUP($A6,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.50819712500000003</v>
+        <v>0.573813518696069</v>
       </c>
       <c r="F6">
         <f>VLOOKUP($A6,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.50144582500000001</v>
+        <v>0.57878928316884504</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1973,23 +1973,23 @@
       </c>
       <c r="B7">
         <f>VLOOKUP($A7,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.154427287</v>
+        <v>6.3768089053803295E-2</v>
       </c>
       <c r="C7">
         <f>VLOOKUP($A7,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.154427287</v>
+        <v>6.3768089053803295E-2</v>
       </c>
       <c r="D7">
         <f>VLOOKUP($A7,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.145249185</v>
+        <v>0.122653215065038</v>
       </c>
       <c r="E7">
         <f>VLOOKUP($A7,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.10212573799999999</v>
+        <v>9.9400767018216596E-2</v>
       </c>
       <c r="F7">
         <f>VLOOKUP($A7,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.106297272</v>
+        <v>7.1162616783054702E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1998,23 +1998,23 @@
       </c>
       <c r="B8">
         <f>VLOOKUP($A8,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15873015900000001</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="C8">
         <f>VLOOKUP($A8,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15873015900000001</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="D8">
         <f>VLOOKUP($A8,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.16666666699999999</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="E8">
         <f>VLOOKUP($A8,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.185185185</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($A8,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.20754717</v>
+        <v>0.10256410256410201</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,23 +2023,23 @@
       </c>
       <c r="B9">
         <f>VLOOKUP($A9,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.158356676</v>
+        <v>0.117501546072974</v>
       </c>
       <c r="C9">
         <f>VLOOKUP($A9,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.158356676</v>
+        <v>0.117501546072974</v>
       </c>
       <c r="D9">
         <f>VLOOKUP($A9,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.12886597899999999</v>
+        <v>0.111570247933884</v>
       </c>
       <c r="E9">
         <f>VLOOKUP($A9,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.119017894</v>
+        <v>2.8985507246376802E-2</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($A9,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.16315205299999999</v>
+        <v>6.6476733143399802E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2048,23 +2048,23 @@
       </c>
       <c r="B10">
         <f>VLOOKUP($A10,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.0242096999999993E-2</v>
+        <v>0.25822139764996899</v>
       </c>
       <c r="C10">
         <f>VLOOKUP($A10,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.0242096999999993E-2</v>
+        <v>0.25822139764996899</v>
       </c>
       <c r="D10">
         <f>VLOOKUP($A10,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.3449750999999998E-2</v>
+        <v>0.23745780467931499</v>
       </c>
       <c r="E10">
         <f>VLOOKUP($A10,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.3957977999999998E-2</v>
+        <v>0.168115942028985</v>
       </c>
       <c r="F10">
         <f>VLOOKUP($A10,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.5619153000000003E-2</v>
+        <v>0.20504187170853799</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2073,23 +2073,23 @@
       </c>
       <c r="B11">
         <f>VLOOKUP($A11,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.7072829000000001E-2</v>
+        <v>1.8894248608534302E-2</v>
       </c>
       <c r="C11">
         <f>VLOOKUP($A11,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.7072829000000001E-2</v>
+        <v>1.8894248608534302E-2</v>
       </c>
       <c r="D11">
         <f>VLOOKUP($A11,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.4376885000000001E-2</v>
+        <v>1.7809335350948599E-2</v>
       </c>
       <c r="E11">
         <f>VLOOKUP($A11,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.0788099999999996E-3</v>
+        <v>1.6811594202898499E-2</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($A11,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.2809579999999996E-3</v>
+        <v>5.3958387291720604E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,23 +2098,23 @@
       </c>
       <c r="B12">
         <f>VLOOKUP($A12,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.42873778299999998</v>
+        <v>0.44536443148687999</v>
       </c>
       <c r="C12">
         <f>VLOOKUP($A12,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.42873778299999998</v>
+        <v>0.44536443148687999</v>
       </c>
       <c r="D12">
         <f>VLOOKUP($A12,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.466464561</v>
+        <v>0.465464788732394</v>
       </c>
       <c r="E12">
         <f>VLOOKUP($A12,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.49690385500000001</v>
+        <v>0.55884447038225804</v>
       </c>
       <c r="F12">
         <f>VLOOKUP($A12,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.44505682299999999</v>
+        <v>0.55258114868820396</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,23 +2123,23 @@
       </c>
       <c r="B13">
         <f>VLOOKUP($A13,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.146860456</v>
+        <v>6.4780280943546195E-2</v>
       </c>
       <c r="C13">
         <f>VLOOKUP($A13,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.146860456</v>
+        <v>6.4780280943546195E-2</v>
       </c>
       <c r="D13">
         <f>VLOOKUP($A13,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.13017615699999999</v>
+        <v>0.12224327784891099</v>
       </c>
       <c r="E13">
         <f>VLOOKUP($A13,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.9856276999999993E-2</v>
+        <v>9.6807703530784897E-2</v>
       </c>
       <c r="F13">
         <f>VLOOKUP($A13,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.4343842999999997E-2</v>
+        <v>6.7940305166582504E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2148,23 +2148,23 @@
       </c>
       <c r="B14">
         <f>VLOOKUP($A14,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.124697449</v>
+        <v>8.4306987399770897E-2</v>
       </c>
       <c r="C14">
         <f>VLOOKUP($A14,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.124697449</v>
+        <v>8.4306987399770897E-2</v>
       </c>
       <c r="D14">
         <f>VLOOKUP($A14,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.115745714</v>
+        <v>0.136122448979591</v>
       </c>
       <c r="E14">
         <f>VLOOKUP($A14,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.108499096</v>
+        <v>0.22760800842992601</v>
       </c>
       <c r="F14">
         <f>VLOOKUP($A14,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11312767</v>
+        <v>0.213101098068913</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,23 +2173,23 @@
       </c>
       <c r="B15">
         <f>VLOOKUP($A15,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.4691864E-2</v>
+        <v>0.152806414662084</v>
       </c>
       <c r="C15">
         <f>VLOOKUP($A15,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.4691864E-2</v>
+        <v>0.152806414662084</v>
       </c>
       <c r="D15">
         <f>VLOOKUP($A15,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.9235834999999997E-2</v>
+        <v>9.8571428571428504E-2</v>
       </c>
       <c r="E15">
         <f>VLOOKUP($A15,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.3399637999999997E-2</v>
+        <v>8.0084299262381406E-2</v>
       </c>
       <c r="F15">
         <f>VLOOKUP($A15,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.5161302999999998E-2</v>
+        <v>8.9057175312381595E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,23 +2198,23 @@
       </c>
       <c r="B16">
         <f>VLOOKUP($A16,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.6335880000000002E-3</v>
+        <v>1.03092783505154E-2</v>
       </c>
       <c r="C16">
         <f>VLOOKUP($A16,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.6335880000000002E-3</v>
+        <v>1.03092783505154E-2</v>
       </c>
       <c r="D16">
         <f>VLOOKUP($A16,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.6900370000000002E-3</v>
+        <v>3.06122448979591E-2</v>
       </c>
       <c r="E16">
         <f>VLOOKUP($A16,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.2194090000000004E-3</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="F16">
         <f>VLOOKUP($A16,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.1406843999999999E-2</v>
+        <v>7.1942446043165402E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,23 +2223,23 @@
       </c>
       <c r="B17">
         <f>VLOOKUP($A17,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.107429117</v>
+        <v>0.24684536082474201</v>
       </c>
       <c r="C17">
         <f>VLOOKUP($A17,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.107429117</v>
+        <v>0.24684536082474201</v>
       </c>
       <c r="D17">
         <f>VLOOKUP($A17,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11160479</v>
+        <v>0.206956021845357</v>
       </c>
       <c r="E17">
         <f>VLOOKUP($A17,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.113954849</v>
+        <v>0.13692307692307601</v>
       </c>
       <c r="F17">
         <f>VLOOKUP($A17,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.1143271</v>
+        <v>0.17041950854900401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2248,23 +2248,23 @@
       </c>
       <c r="B18">
         <f>VLOOKUP($A18,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.0324426999999999E-2</v>
+        <v>1.8061855670102999E-2</v>
       </c>
       <c r="C18">
         <f>VLOOKUP($A18,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.0324426999999999E-2</v>
+        <v>1.8061855670102999E-2</v>
       </c>
       <c r="D18">
         <f>VLOOKUP($A18,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.7169968000000001E-2</v>
+        <v>1.5521701638401801E-2</v>
       </c>
       <c r="E18">
         <f>VLOOKUP($A18,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>6.1597220000000003E-3</v>
+        <v>1.3692307692307599E-2</v>
       </c>
       <c r="F18">
         <f>VLOOKUP($A18,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.7163550000000002E-3</v>
+        <v>4.4847239091843401E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2273,23 +2273,23 @@
       </c>
       <c r="B19">
         <f>VLOOKUP($A19,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.51039285400000001</v>
+        <v>0.42574374079528698</v>
       </c>
       <c r="C19">
         <f>VLOOKUP($A19,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.51039285400000001</v>
+        <v>0.42574374079528698</v>
       </c>
       <c r="D19">
         <f>VLOOKUP($A19,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.55708740400000001</v>
+        <v>0.40567519402127</v>
       </c>
       <c r="E19">
         <f>VLOOKUP($A19,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.60265881600000004</v>
+        <v>0.45515436241610702</v>
       </c>
       <c r="F19">
         <f>VLOOKUP($A19,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.59428356599999999</v>
+        <v>0.45927501055369502</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2298,23 +2298,23 @@
       </c>
       <c r="B20">
         <f>VLOOKUP($A20,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17483070100000001</v>
+        <v>6.1926362297496297E-2</v>
       </c>
       <c r="C20">
         <f>VLOOKUP($A20,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17483070100000001</v>
+        <v>6.1926362297496297E-2</v>
       </c>
       <c r="D20">
         <f>VLOOKUP($A20,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.155466252</v>
+        <v>0.10654096004598999</v>
       </c>
       <c r="E20">
         <f>VLOOKUP($A20,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.12110847</v>
+        <v>7.8845637583892597E-2</v>
       </c>
       <c r="F20">
         <f>VLOOKUP($A20,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.125977162</v>
+        <v>5.6468239002503501E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,23 +2323,23 @@
       </c>
       <c r="B21">
         <f>VLOOKUP($A21,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.1363691000000003E-2</v>
+        <v>2.3624953857511899E-2</v>
       </c>
       <c r="C21">
         <f>VLOOKUP($A21,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.1363691000000003E-2</v>
+        <v>2.3624953857511899E-2</v>
       </c>
       <c r="D21">
         <f>VLOOKUP($A21,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.4914928E-2</v>
+        <v>3.92804232804232E-2</v>
       </c>
       <c r="E21">
         <f>VLOOKUP($A21,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.5787018999999997E-2</v>
+        <v>0.107222914072229</v>
       </c>
       <c r="F21">
         <f>VLOOKUP($A21,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.8584385000000003E-2</v>
+        <v>9.7501819063788506E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2348,23 +2348,23 @@
       </c>
       <c r="B22">
         <f>VLOOKUP($A22,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.2527934999999999E-2</v>
+        <v>4.2820228866740397E-2</v>
       </c>
       <c r="C22">
         <f>VLOOKUP($A22,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.2527934999999999E-2</v>
+        <v>4.2820228866740397E-2</v>
       </c>
       <c r="D22">
         <f>VLOOKUP($A22,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.5225399000000001E-2</v>
+        <v>2.8444444444444401E-2</v>
       </c>
       <c r="E22">
         <f>VLOOKUP($A22,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.0314807999999999E-2</v>
+        <v>3.7726580877265797E-2</v>
       </c>
       <c r="F22">
         <f>VLOOKUP($A22,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.8208660000000002E-2</v>
+        <v>4.0747028862478697E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,23 +2373,23 @@
       </c>
       <c r="B23">
         <f>VLOOKUP($A23,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>6.8965517000000004E-2</v>
+        <v>2.8792912513842701E-2</v>
       </c>
       <c r="C23">
         <f>VLOOKUP($A23,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>6.8965517000000004E-2</v>
+        <v>2.8792912513842701E-2</v>
       </c>
       <c r="D23">
         <f>VLOOKUP($A23,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>6.1810891999999999E-2</v>
+        <v>4.6560846560846497E-2</v>
       </c>
       <c r="E23">
         <f>VLOOKUP($A23,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.119704625</v>
+        <v>6.7171717171717105E-2</v>
       </c>
       <c r="F23">
         <f>VLOOKUP($A23,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>6.9548418000000001E-2</v>
+        <v>5.5299539170506902E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2398,23 +2398,23 @@
       </c>
       <c r="B24">
         <f>VLOOKUP($A24,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.8571428999999999E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="C24">
         <f>VLOOKUP($A24,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.8571428999999999E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="D24">
         <f>VLOOKUP($A24,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.4390243999999998E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="E24">
         <f>VLOOKUP($A24,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.2258065000000002E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="F24">
         <f>VLOOKUP($A24,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.4390243999999998E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,23 +2423,23 @@
       </c>
       <c r="B25">
         <f>VLOOKUP($A25,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.5714286000000001E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="C25">
         <f>VLOOKUP($A25,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.5714286000000001E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="D25">
         <f>VLOOKUP($A25,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.8780487999999997E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="E25">
         <f>VLOOKUP($A25,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.2258065000000002E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="F25">
         <f>VLOOKUP($A25,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.3170732000000002E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2448,23 +2448,23 @@
       </c>
       <c r="B26">
         <f>VLOOKUP($A26,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.55332157599999998</v>
+        <v>0.727513227513227</v>
       </c>
       <c r="C26">
         <f>VLOOKUP($A26,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.55332157599999998</v>
+        <v>0.727513227513227</v>
       </c>
       <c r="D26">
         <f>VLOOKUP($A26,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.62926829299999998</v>
+        <v>0.65622857142857105</v>
       </c>
       <c r="E26">
         <f>VLOOKUP($A26,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.59092661599999996</v>
+        <v>0.61989017693715598</v>
       </c>
       <c r="F26">
         <f>VLOOKUP($A26,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.62385235999999999</v>
+        <v>0.66070167176830696</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2473,23 +2473,23 @@
       </c>
       <c r="B27">
         <f>VLOOKUP($A27,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.18953556699999999</v>
+        <v>0.105820105820105</v>
       </c>
       <c r="C27">
         <f>VLOOKUP($A27,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.18953556699999999</v>
+        <v>0.105820105820105</v>
       </c>
       <c r="D27">
         <f>VLOOKUP($A27,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17560975600000001</v>
+        <v>0.17234285714285699</v>
       </c>
       <c r="E27">
         <f>VLOOKUP($A27,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.118750803</v>
+        <v>0.10738255033557</v>
       </c>
       <c r="F27">
         <f>VLOOKUP($A27,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.13224520100000001</v>
+        <v>8.1233812102660702E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,23 +2498,23 @@
       </c>
       <c r="B28">
         <f>VLOOKUP($A28,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11984861199999999</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="C28">
         <f>VLOOKUP($A28,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11984861199999999</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="D28">
         <f>VLOOKUP($A28,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.28645743000000001</v>
+        <v>8.5925925925925906E-2</v>
       </c>
       <c r="E28">
         <f>VLOOKUP($A28,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.5893778999999998E-2</v>
+        <v>0.16849315068493101</v>
       </c>
       <c r="F28">
         <f>VLOOKUP($A28,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.13344221000000001</v>
+        <v>0.22389306599832901</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,23 +2523,23 @@
       </c>
       <c r="B29">
         <f>VLOOKUP($A29,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.2565181000000002E-2</v>
+        <v>0.224806201550387</v>
       </c>
       <c r="C29">
         <f>VLOOKUP($A29,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.2565181000000002E-2</v>
+        <v>0.224806201550387</v>
       </c>
       <c r="D29">
         <f>VLOOKUP($A29,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.7104213999999994E-2</v>
+        <v>6.22222222222222E-2</v>
       </c>
       <c r="E29">
         <f>VLOOKUP($A29,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.8357512000000003E-2</v>
+        <v>5.9284627092846202E-2</v>
       </c>
       <c r="F29">
         <f>VLOOKUP($A29,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.1475282000000002E-2</v>
+        <v>9.3567251461988202E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2548,23 +2548,23 @@
       </c>
       <c r="B30">
         <f>VLOOKUP($A30,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.16091954</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="C30">
         <f>VLOOKUP($A30,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.16091954</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="D30">
         <f>VLOOKUP($A30,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.394216134</v>
+        <v>0.101851851851851</v>
       </c>
       <c r="E30">
         <f>VLOOKUP($A30,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15146299499999999</v>
+        <v>0.105555555555555</v>
       </c>
       <c r="F30">
         <f>VLOOKUP($A30,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.158415842</v>
+        <v>0.12698412698412601</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2573,23 +2573,23 @@
       </c>
       <c r="B31">
         <f>VLOOKUP($A31,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.55555555599999995</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
         <f>VLOOKUP($A31,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.55555555599999995</v>
+        <v>0.25</v>
       </c>
       <c r="D31">
         <f>VLOOKUP($A31,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.111111111</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
         <f>VLOOKUP($A31,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.64285714299999996</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="F31">
         <f>VLOOKUP($A31,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.33333333300000001</v>
+        <v>0.44444444444444398</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2598,23 +2598,23 @@
       </c>
       <c r="B32">
         <f>VLOOKUP($A32,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.2761773999999996E-2</v>
+        <v>0.21825396825396801</v>
       </c>
       <c r="C32">
         <f>VLOOKUP($A32,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.2761773999999996E-2</v>
+        <v>0.21825396825396801</v>
       </c>
       <c r="D32">
         <f>VLOOKUP($A32,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.6868687E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E32">
         <f>VLOOKUP($A32,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.9476380000000002E-2</v>
+        <v>0.284116331096196</v>
       </c>
       <c r="F32">
         <f>VLOOKUP($A32,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.275031686</v>
+        <v>9.8945660989456605E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,23 +2623,23 @@
       </c>
       <c r="B33">
         <f>VLOOKUP($A33,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.8349336999999999E-2</v>
+        <v>3.1746031746031703E-2</v>
       </c>
       <c r="C33">
         <f>VLOOKUP($A33,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.8349336999999999E-2</v>
+        <v>3.1746031746031703E-2</v>
       </c>
       <c r="D33">
         <f>VLOOKUP($A33,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.4242423999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E33">
         <f>VLOOKUP($A33,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.1952190999999999E-2</v>
+        <v>4.9217002237136397E-2</v>
       </c>
       <c r="F33">
         <f>VLOOKUP($A33,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>5.8301647999999998E-2</v>
+        <v>1.21654501216545E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,23 +2648,23 @@
       </c>
       <c r="B34">
         <f>VLOOKUP($A34,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11392951599999999</v>
+        <v>3.6848332402665197E-2</v>
       </c>
       <c r="C34">
         <f>VLOOKUP($A34,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11392951599999999</v>
+        <v>3.6848332402665197E-2</v>
       </c>
       <c r="D34">
         <f>VLOOKUP($A34,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.11116308</v>
+        <v>4.6993888071138197E-2</v>
       </c>
       <c r="E34">
         <f>VLOOKUP($A34,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.10150782799999999</v>
+        <v>7.7147316009809494E-2</v>
       </c>
       <c r="F34">
         <f>VLOOKUP($A34,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.134554229</v>
+        <v>0.111546723952739</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2673,23 +2673,23 @@
       </c>
       <c r="B35">
         <f>VLOOKUP($A35,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.9969086000000003E-2</v>
+        <v>6.6787602479830704E-2</v>
       </c>
       <c r="C35">
         <f>VLOOKUP($A35,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.9969086000000003E-2</v>
+        <v>6.6787602479830704E-2</v>
       </c>
       <c r="D35">
         <f>VLOOKUP($A35,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.7682399999999998E-2</v>
+        <v>3.4030056879100101E-2</v>
       </c>
       <c r="E35">
         <f>VLOOKUP($A35,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.0603131000000001E-2</v>
+        <v>2.7144426003451402E-2</v>
       </c>
       <c r="F35">
         <f>VLOOKUP($A35,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.1820909000000003E-2</v>
+        <v>4.6616541353383403E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2698,23 +2698,23 @@
       </c>
       <c r="B36">
         <f>VLOOKUP($A36,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15297202800000001</v>
+        <v>4.4908905115748202E-2</v>
       </c>
       <c r="C36">
         <f>VLOOKUP($A36,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15297202800000001</v>
+        <v>4.4908905115748202E-2</v>
       </c>
       <c r="D36">
         <f>VLOOKUP($A36,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.15298007699999999</v>
+        <v>5.5703962153288801E-2</v>
       </c>
       <c r="E36">
         <f>VLOOKUP($A36,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.160330312</v>
+        <v>4.8330319469559901E-2</v>
       </c>
       <c r="F36">
         <f>VLOOKUP($A36,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.159735974</v>
+        <v>6.3265306122448906E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,23 +2723,23 @@
       </c>
       <c r="B37">
         <f>VLOOKUP($A37,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.49431818199999999</v>
+        <v>0.74685044554672697</v>
       </c>
       <c r="C37">
         <f>VLOOKUP($A37,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.49431818199999999</v>
+        <v>0.74685044554672697</v>
       </c>
       <c r="D37">
         <f>VLOOKUP($A37,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.52089249500000001</v>
+        <v>0.75560159188791298</v>
       </c>
       <c r="E37">
         <f>VLOOKUP($A37,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.57328420099999999</v>
+        <v>0.73403943856023401</v>
       </c>
       <c r="F37">
         <f>VLOOKUP($A37,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.51180555599999999</v>
+        <v>0.63558201058201003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2748,23 +2748,23 @@
       </c>
       <c r="B38">
         <f>VLOOKUP($A38,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.2674825000000001E-2</v>
+        <v>4.1262455555067801E-3</v>
       </c>
       <c r="C38">
         <f>VLOOKUP($A38,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.2674825000000001E-2</v>
+        <v>4.1262455555067801E-3</v>
       </c>
       <c r="D38">
         <f>VLOOKUP($A38,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.8681540000000004E-3</v>
+        <v>3.5981028185138701E-3</v>
       </c>
       <c r="E38">
         <f>VLOOKUP($A38,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>4.514049E-3</v>
+        <v>3.6338586067338301E-3</v>
       </c>
       <c r="F38">
         <f>VLOOKUP($A38,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>1.1458332999999999E-2</v>
+        <v>4.1005291005291001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2773,23 +2773,23 @@
       </c>
       <c r="B39">
         <f>VLOOKUP($A39,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17613636399999999</v>
+        <v>0.100478468899521</v>
       </c>
       <c r="C39">
         <f>VLOOKUP($A39,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17613636399999999</v>
+        <v>0.100478468899521</v>
       </c>
       <c r="D39">
         <f>VLOOKUP($A39,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.17241379300000001</v>
+        <v>0.104072398190045</v>
       </c>
       <c r="E39">
         <f>VLOOKUP($A39,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.119760479</v>
+        <v>0.10970464135021001</v>
       </c>
       <c r="F39">
         <f>VLOOKUP($A39,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.140625</v>
+        <v>0.13888888888888801</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2798,23 +2798,23 @@
       </c>
       <c r="B40">
         <f>VLOOKUP($A40,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.6722268000000005E-2</v>
+        <v>3.22749578136819E-2</v>
       </c>
       <c r="C40">
         <f>VLOOKUP($A40,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>8.6722268000000005E-2</v>
+        <v>3.22749578136819E-2</v>
       </c>
       <c r="D40">
         <f>VLOOKUP($A40,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.7993452000000005E-2</v>
+        <v>4.6872691712476301E-2</v>
       </c>
       <c r="E40">
         <f>VLOOKUP($A40,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>7.0472365999999995E-2</v>
+        <v>6.4371260833100297E-2</v>
       </c>
       <c r="F40">
         <f>VLOOKUP($A40,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.116717453</v>
+        <v>0.113993555316863</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,23 +2823,23 @@
       </c>
       <c r="B41">
         <f>VLOOKUP($A41,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.8036082999999998E-2</v>
+        <v>5.8498361037298503E-2</v>
       </c>
       <c r="C41">
         <f>VLOOKUP($A41,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.8036082999999998E-2</v>
+        <v>5.8498361037298503E-2</v>
       </c>
       <c r="D41">
         <f>VLOOKUP($A41,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.6438458000000001E-2</v>
+        <v>3.3942293998689699E-2</v>
       </c>
       <c r="E41">
         <f>VLOOKUP($A41,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>2.8188945999999999E-2</v>
+        <v>2.26491473301649E-2</v>
       </c>
       <c r="F41">
         <f>VLOOKUP($A41,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.6277046E-2</v>
+        <v>4.7639097744360898E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2848,23 +2848,23 @@
       </c>
       <c r="B42">
         <f>VLOOKUP($A42,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.116441128</v>
+        <v>3.9335104835424801E-2</v>
       </c>
       <c r="C42">
         <f>VLOOKUP($A42,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.116441128</v>
+        <v>3.9335104835424801E-2</v>
       </c>
       <c r="D42">
         <f>VLOOKUP($A42,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.10733279599999999</v>
+        <v>5.5560302676426698E-2</v>
       </c>
       <c r="E42">
         <f>VLOOKUP($A42,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.111310198</v>
+        <v>4.0326530612244803E-2</v>
       </c>
       <c r="F42">
         <f>VLOOKUP($A42,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.13856105599999999</v>
+        <v>6.4653061224489702E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2873,23 +2873,23 @@
       </c>
       <c r="B43">
         <f>VLOOKUP($A43,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.37627118599999998</v>
+        <v>0.65415624131220396</v>
       </c>
       <c r="C43">
         <f>VLOOKUP($A43,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.37627118599999998</v>
+        <v>0.65415624131220396</v>
       </c>
       <c r="D43">
         <f>VLOOKUP($A43,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.36546489599999998</v>
+        <v>0.753652909510382</v>
       </c>
       <c r="E43">
         <f>VLOOKUP($A43,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.39800569800000002</v>
+        <v>0.612478134110787</v>
       </c>
       <c r="F43">
         <f>VLOOKUP($A43,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.44395959600000001</v>
+        <v>0.64952380952380895</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,23 +2898,23 @@
       </c>
       <c r="B44">
         <f>VLOOKUP($A44,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.6479789999999992E-3</v>
+        <v>3.6141228801779201E-3</v>
       </c>
       <c r="C44">
         <f>VLOOKUP($A44,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.6479789999999992E-3</v>
+        <v>3.6141228801779201E-3</v>
       </c>
       <c r="D44">
         <f>VLOOKUP($A44,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.4155600000000002E-3</v>
+        <v>3.58882337862086E-3</v>
       </c>
       <c r="E44">
         <f>VLOOKUP($A44,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>3.1339029999999999E-3</v>
+        <v>3.03206997084548E-3</v>
       </c>
       <c r="F44">
         <f>VLOOKUP($A44,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>9.9393940000000007E-3</v>
+        <v>4.1904761904761898E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,23 +2923,23 @@
       </c>
       <c r="B45">
         <f>VLOOKUP($A45,ex_od_pcts!$A$3:$F$46,MATCH(vloop!B$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.372881356</v>
+        <v>0.21212121212121199</v>
       </c>
       <c r="C45">
         <f>VLOOKUP($A45,ex_od_pcts!$A$3:$F$46,MATCH(vloop!C$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.372881356</v>
+        <v>0.21212121212121199</v>
       </c>
       <c r="D45">
         <f>VLOOKUP($A45,ex_od_pcts!$A$3:$F$46,MATCH(vloop!D$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.41935483899999998</v>
+        <v>0.10638297872340401</v>
       </c>
       <c r="E45">
         <f>VLOOKUP($A45,ex_od_pcts!$A$3:$F$46,MATCH(vloop!E$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.38888888900000002</v>
+        <v>0.25714285714285701</v>
       </c>
       <c r="F45">
         <f>VLOOKUP($A45,ex_od_pcts!$A$3:$F$46,MATCH(vloop!F$1,ex_od_pcts!$A$1:$F$1,0))</f>
-        <v>0.25454545499999998</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
